--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H2">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I2">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J2">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N2">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q2">
-        <v>67.9525724381501</v>
+        <v>68.62040205657556</v>
       </c>
       <c r="R2">
-        <v>611.5731519433509</v>
+        <v>617.58361850918</v>
       </c>
       <c r="S2">
-        <v>0.01744819852156473</v>
+        <v>0.01562644706285478</v>
       </c>
       <c r="T2">
-        <v>0.01744819852156473</v>
+        <v>0.01562644706285478</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H3">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I3">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J3">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q3">
-        <v>731.5703452603863</v>
+        <v>701.8196949739477</v>
       </c>
       <c r="R3">
-        <v>6584.133107343476</v>
+        <v>6316.377254765529</v>
       </c>
       <c r="S3">
-        <v>0.1878454951534189</v>
+        <v>0.1598205195903304</v>
       </c>
       <c r="T3">
-        <v>0.1878454951534189</v>
+        <v>0.1598205195903303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H4">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I4">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J4">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N4">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O4">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P4">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q4">
-        <v>1080.14715799731</v>
+        <v>1784.524285660126</v>
       </c>
       <c r="R4">
-        <v>9721.324421975794</v>
+        <v>16060.71857094113</v>
       </c>
       <c r="S4">
-        <v>0.2773496479827172</v>
+        <v>0.4063773083004624</v>
       </c>
       <c r="T4">
-        <v>0.2773496479827172</v>
+        <v>0.4063773083004624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H5">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I5">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J5">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N5">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O5">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P5">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q5">
-        <v>382.8848387746986</v>
+        <v>466.5501375724352</v>
       </c>
       <c r="R5">
-        <v>3445.963548972287</v>
+        <v>4198.951238151917</v>
       </c>
       <c r="S5">
-        <v>0.09831343300386343</v>
+        <v>0.106244219043375</v>
       </c>
       <c r="T5">
-        <v>0.09831343300386342</v>
+        <v>0.106244219043375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H6">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I6">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J6">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N6">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q6">
-        <v>1601.11694770514</v>
+        <v>1272.291449260435</v>
       </c>
       <c r="R6">
-        <v>14410.05252934626</v>
+        <v>11450.62304334392</v>
       </c>
       <c r="S6">
-        <v>0.4111191873601068</v>
+        <v>0.2897300858715363</v>
       </c>
       <c r="T6">
-        <v>0.4111191873601068</v>
+        <v>0.2897300858715363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.455806</v>
       </c>
       <c r="I7">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J7">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N7">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q7">
-        <v>0.3220345864117778</v>
+        <v>0.3389849480044445</v>
       </c>
       <c r="R7">
-        <v>2.898311277706</v>
+        <v>3.05086453204</v>
       </c>
       <c r="S7">
-        <v>8.268889893222204E-05</v>
+        <v>7.719468534633035E-05</v>
       </c>
       <c r="T7">
-        <v>8.268889893222205E-05</v>
+        <v>7.719468534633035E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.455806</v>
       </c>
       <c r="I8">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J8">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q8">
         <v>3.466990948451333</v>
@@ -948,10 +948,10 @@
         <v>31.202918536062</v>
       </c>
       <c r="S8">
-        <v>0.0008902201075037577</v>
+        <v>0.000789513743721645</v>
       </c>
       <c r="T8">
-        <v>0.0008902201075037577</v>
+        <v>0.0007895137437216449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.455806</v>
       </c>
       <c r="I9">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J9">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N9">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O9">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P9">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q9">
-        <v>5.118934144930666</v>
+        <v>8.815554180058887</v>
       </c>
       <c r="R9">
-        <v>46.070407304376</v>
+        <v>79.33998762053</v>
       </c>
       <c r="S9">
-        <v>0.001314389963100534</v>
+        <v>0.002007504861467332</v>
       </c>
       <c r="T9">
-        <v>0.001314389963100534</v>
+        <v>0.002007504861467332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.455806</v>
       </c>
       <c r="I10">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J10">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N10">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O10">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P10">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q10">
-        <v>1.814532640546889</v>
+        <v>2.304758779991778</v>
       </c>
       <c r="R10">
-        <v>16.330793764922</v>
+        <v>20.742829019926</v>
       </c>
       <c r="S10">
-        <v>0.0004659179866213035</v>
+        <v>0.0005248466926570582</v>
       </c>
       <c r="T10">
-        <v>0.0004659179866213036</v>
+        <v>0.0005248466926570582</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.455806</v>
       </c>
       <c r="I11">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J11">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N11">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q11">
-        <v>7.58786629484</v>
+        <v>6.285122760115333</v>
       </c>
       <c r="R11">
-        <v>68.29079665356001</v>
+        <v>56.566104841038</v>
       </c>
       <c r="S11">
-        <v>0.001948338270607234</v>
+        <v>0.0014312673075496</v>
       </c>
       <c r="T11">
-        <v>0.001948338270607234</v>
+        <v>0.0014312673075496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H12">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I12">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J12">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N12">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q12">
-        <v>0.1864349408032222</v>
+        <v>1.042748001555556</v>
       </c>
       <c r="R12">
-        <v>1.677914467229</v>
+        <v>9.384732014000001</v>
       </c>
       <c r="S12">
-        <v>4.787094501023641E-05</v>
+        <v>0.0002374577524738371</v>
       </c>
       <c r="T12">
-        <v>4.787094501023641E-05</v>
+        <v>0.0002374577524738371</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H13">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I13">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J13">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q13">
-        <v>2.007139231353666</v>
+        <v>10.66477406796667</v>
       </c>
       <c r="R13">
-        <v>18.064253082183</v>
+        <v>95.98296661170001</v>
       </c>
       <c r="S13">
-        <v>0.0005153736277012239</v>
+        <v>0.002428614849458144</v>
       </c>
       <c r="T13">
-        <v>0.0005153736277012239</v>
+        <v>0.002428614849458143</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H14">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I14">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J14">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N14">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O14">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P14">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q14">
-        <v>2.963495924209333</v>
+        <v>27.11743267061111</v>
       </c>
       <c r="R14">
-        <v>26.67146331788399</v>
+        <v>244.0568940355</v>
       </c>
       <c r="S14">
-        <v>0.0007609375678973199</v>
+        <v>0.006175264402538244</v>
       </c>
       <c r="T14">
-        <v>0.0007609375678973198</v>
+        <v>0.006175264402538244</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H15">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I15">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J15">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N15">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O15">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P15">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q15">
-        <v>1.050484325908111</v>
+        <v>7.089644027122223</v>
       </c>
       <c r="R15">
-        <v>9.454358933172999</v>
+        <v>63.80679624410001</v>
       </c>
       <c r="S15">
-        <v>0.000269733115386026</v>
+        <v>0.001614475342085144</v>
       </c>
       <c r="T15">
-        <v>0.0002697331153860259</v>
+        <v>0.001614475342085144</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H16">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I16">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J16">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N16">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q16">
-        <v>4.392830656059999</v>
+        <v>19.33359943036666</v>
       </c>
       <c r="R16">
-        <v>39.53547590454</v>
+        <v>174.0023948733</v>
       </c>
       <c r="S16">
-        <v>0.001127948193989474</v>
+        <v>0.004402706177442365</v>
       </c>
       <c r="T16">
-        <v>0.001127948193989474</v>
+        <v>0.004402706177442365</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H17">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I17">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J17">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N17">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q17">
-        <v>0.03429008529266667</v>
+        <v>0.1763286052555556</v>
       </c>
       <c r="R17">
-        <v>0.308610767634</v>
+        <v>1.5869574473</v>
       </c>
       <c r="S17">
-        <v>8.804673525088448E-06</v>
+        <v>4.015408731387519E-05</v>
       </c>
       <c r="T17">
-        <v>8.804673525088448E-06</v>
+        <v>4.015408731387519E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H18">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I18">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J18">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>68.456577</v>
       </c>
       <c r="O18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q18">
-        <v>0.369163500902</v>
+        <v>1.803412458201667</v>
       </c>
       <c r="R18">
-        <v>3.322471508118</v>
+        <v>16.230712123815</v>
       </c>
       <c r="S18">
-        <v>9.479020174720688E-05</v>
+        <v>0.0004106785805094347</v>
       </c>
       <c r="T18">
-        <v>9.479020174720686E-05</v>
+        <v>0.0004106785805094347</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H19">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I19">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J19">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N19">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O19">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P19">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q19">
-        <v>0.545061604696</v>
+        <v>4.585555737136111</v>
       </c>
       <c r="R19">
-        <v>4.905554442263999</v>
+        <v>41.270001634225</v>
       </c>
       <c r="S19">
-        <v>0.0001399556005605923</v>
+        <v>0.00104423672599658</v>
       </c>
       <c r="T19">
-        <v>0.0001399556005605923</v>
+        <v>0.00104423672599658</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H20">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I20">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J20">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N20">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O20">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P20">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q20">
-        <v>0.1932105482953334</v>
+        <v>1.198858248777222</v>
       </c>
       <c r="R20">
-        <v>1.738894934658</v>
+        <v>10.789724238995</v>
       </c>
       <c r="S20">
-        <v>4.961071939087758E-05</v>
+        <v>0.0002730076536849563</v>
       </c>
       <c r="T20">
-        <v>4.961071939087758E-05</v>
+        <v>0.0002730076536849563</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H21">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I21">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J21">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N21">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q21">
-        <v>0.8079522927600001</v>
+        <v>3.269310146881666</v>
       </c>
       <c r="R21">
-        <v>7.271570634840001</v>
+        <v>29.423791321935</v>
       </c>
       <c r="S21">
-        <v>0.0002074581063558872</v>
+        <v>0.0007444972691967031</v>
       </c>
       <c r="T21">
-        <v>0.0002074581063558872</v>
+        <v>0.0007444972691967031</v>
       </c>
     </row>
   </sheetData>
